--- a/LifeTable.xlsx
+++ b/LifeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60fbcbf13f010c44/Documents/Mestrado/Macro/Macro-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{5C83BFCC-0599-40F3-81F8-08A9ECC458B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{818463A1-7DE5-4254-875C-098152C9E82A}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{5C83BFCC-0599-40F3-81F8-08A9ECC458B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D2B0031-5C7E-429F-B6B3-48DDFDF79E2A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C0CDE1D7-338A-415C-8EF2-FC66EB3F835C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="477">
   <si>
     <t>age</t>
   </si>
@@ -1465,15 +1465,6 @@
   </si>
   <si>
     <t>Life expectancy - female</t>
-  </si>
-  <si>
-    <t>Number of lives - mean</t>
-  </si>
-  <si>
-    <t>Measure</t>
-  </si>
-  <si>
-    <t>t</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1537,28 +1528,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1875,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7EAB19-90AC-46E0-9FDC-3D20B4433CA9}">
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1892,7 +1869,7 @@
     <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1914,11 +1891,8 @@
       <c r="G1" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1940,12 +1914,8 @@
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2">
-        <f>(C2+F2)/2</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1967,12 +1937,8 @@
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H66" si="0">(C3+F3)/2</f>
-        <v>99.4435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1994,12 +1960,8 @@
       <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>99.405499999999989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2021,12 +1983,8 @@
       <c r="G5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>99.382000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2048,12 +2006,8 @@
       <c r="G6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>99.364000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2075,12 +2029,8 @@
       <c r="G7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>99.349000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2102,12 +2052,8 @@
       <c r="G8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>99.336000000000013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2129,12 +2075,8 @@
       <c r="G9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>99.323999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2156,12 +2098,8 @@
       <c r="G10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>99.3125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2183,12 +2121,8 @@
       <c r="G11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>99.301999999999992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2210,12 +2144,8 @@
       <c r="G12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>99.292000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2237,12 +2167,8 @@
       <c r="G13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>99.282499999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2264,12 +2190,8 @@
       <c r="G14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>99.271999999999991</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2291,12 +2213,8 @@
       <c r="G15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>99.259500000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2318,12 +2236,8 @@
       <c r="G16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>99.241500000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2345,12 +2259,8 @@
       <c r="G17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>99.216999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2372,12 +2282,8 @@
       <c r="G18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>99.185500000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2399,12 +2305,8 @@
       <c r="G19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>99.146000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2426,15 +2328,8 @@
       <c r="G20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>99.098500000000001</v>
-      </c>
-      <c r="K20" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2456,19 +2351,8 @@
       <c r="G21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>99.043000000000006</v>
-      </c>
-      <c r="K21">
-        <f>AVERAGE(H22:H62)</f>
-        <v>95.602451219512176</v>
-      </c>
-      <c r="M21" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2490,18 +2374,8 @@
       <c r="G22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>98.978499999999997</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2523,18 +2397,8 @@
       <c r="G23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>98.905499999999989</v>
-      </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2556,18 +2420,8 @@
       <c r="G24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>98.823000000000008</v>
-      </c>
-      <c r="M24">
-        <v>3</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2589,18 +2443,8 @@
       <c r="G25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>98.733000000000004</v>
-      </c>
-      <c r="M25">
-        <v>4</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2622,18 +2466,8 @@
       <c r="G26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>98.638499999999993</v>
-      </c>
-      <c r="M26">
-        <v>5</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2655,18 +2489,8 @@
       <c r="G27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>98.539000000000001</v>
-      </c>
-      <c r="M27">
-        <v>6</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -2688,18 +2512,8 @@
       <c r="G28" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>98.436499999999995</v>
-      </c>
-      <c r="M28">
-        <v>7</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2721,18 +2535,8 @@
       <c r="G29" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>98.330500000000001</v>
-      </c>
-      <c r="M29">
-        <v>8</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -2754,18 +2558,8 @@
       <c r="G30" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>98.219500000000011</v>
-      </c>
-      <c r="M30">
-        <v>9</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -2787,19 +2581,8 @@
       <c r="G31" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>98.104000000000013</v>
-      </c>
-      <c r="M31">
-        <v>10</v>
-      </c>
-      <c r="N31">
-        <f>AVERAGE(H63:H67)/$K$21</f>
-        <v>0.8977207059569986</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -2821,19 +2604,8 @@
       <c r="G32" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>97.982499999999987</v>
-      </c>
-      <c r="M32">
-        <v>11</v>
-      </c>
-      <c r="N32">
-        <f>AVERAGE(H68:H72)/$K$21</f>
-        <v>0.84162067994735834</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2855,19 +2627,8 @@
       <c r="G33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>97.85499999999999</v>
-      </c>
-      <c r="M33">
-        <v>12</v>
-      </c>
-      <c r="N33">
-        <f>AVERAGE(H73:H77)/$K$21</f>
-        <v>0.76612679973890863</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2889,19 +2650,8 @@
       <c r="G34" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>97.721499999999992</v>
-      </c>
-      <c r="M34">
-        <v>13</v>
-      </c>
-      <c r="N34">
-        <f>AVERAGE(H78:H82)/$K$21</f>
-        <v>0.65989207593794474</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -2923,19 +2673,8 @@
       <c r="G35" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H35">
-        <f t="shared" si="0"/>
-        <v>97.581999999999994</v>
-      </c>
-      <c r="M35">
-        <v>14</v>
-      </c>
-      <c r="N35">
-        <f>AVERAGE(H83:H87)/$K$21</f>
-        <v>0.51434664459695334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -2957,19 +2696,8 @@
       <c r="G36" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H36">
-        <f t="shared" si="0"/>
-        <v>97.437000000000012</v>
-      </c>
-      <c r="M36">
-        <v>15</v>
-      </c>
-      <c r="N36">
-        <f>AVERAGE(H88:H92)/$K$21</f>
-        <v>0.33417762403020335</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -2991,18 +2719,8 @@
       <c r="G37" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="0"/>
-        <v>97.285499999999999</v>
-      </c>
-      <c r="M37">
-        <v>16</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -3024,12 +2742,8 @@
       <c r="G38" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H38">
-        <f t="shared" si="0"/>
-        <v>97.128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -3051,12 +2765,8 @@
       <c r="G39" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="0"/>
-        <v>96.962999999999994</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -3078,12 +2788,8 @@
       <c r="G40" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H40">
-        <f t="shared" si="0"/>
-        <v>96.791499999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -3105,12 +2811,8 @@
       <c r="G41" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H41">
-        <f t="shared" si="0"/>
-        <v>96.613</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -3132,12 +2834,8 @@
       <c r="G42" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H42">
-        <f t="shared" si="0"/>
-        <v>96.427999999999997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -3159,12 +2857,8 @@
       <c r="G43" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H43">
-        <f t="shared" si="0"/>
-        <v>96.236000000000004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -3186,12 +2880,8 @@
       <c r="G44" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H44">
-        <f t="shared" si="0"/>
-        <v>96.033999999999992</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -3213,12 +2903,8 @@
       <c r="G45" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H45">
-        <f t="shared" si="0"/>
-        <v>95.822499999999991</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -3240,12 +2926,8 @@
       <c r="G46" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H46">
-        <f t="shared" si="0"/>
-        <v>95.599000000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -3267,12 +2949,8 @@
       <c r="G47" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H47">
-        <f t="shared" si="0"/>
-        <v>95.361500000000007</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -3294,12 +2972,8 @@
       <c r="G48" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H48">
-        <f t="shared" si="0"/>
-        <v>95.108499999999992</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -3321,12 +2995,8 @@
       <c r="G49" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H49">
-        <f t="shared" si="0"/>
-        <v>94.837500000000006</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -3348,12 +3018,8 @@
       <c r="G50" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H50">
-        <f t="shared" si="0"/>
-        <v>94.546500000000009</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -3375,12 +3041,8 @@
       <c r="G51" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H51">
-        <f t="shared" si="0"/>
-        <v>94.232499999999987</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -3402,12 +3064,8 @@
       <c r="G52" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H52">
-        <f t="shared" si="0"/>
-        <v>93.892500000000013</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -3429,12 +3087,8 @@
       <c r="G53" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H53">
-        <f t="shared" si="0"/>
-        <v>93.525000000000006</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -3456,12 +3110,8 @@
       <c r="G54" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H54">
-        <f t="shared" si="0"/>
-        <v>93.126499999999993</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -3483,12 +3133,8 @@
       <c r="G55" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H55">
-        <f t="shared" si="0"/>
-        <v>92.694000000000003</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -3510,12 +3156,8 @@
       <c r="G56" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H56">
-        <f t="shared" si="0"/>
-        <v>92.222999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -3537,12 +3179,8 @@
       <c r="G57" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H57">
-        <f t="shared" si="0"/>
-        <v>91.710499999999996</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -3564,12 +3202,8 @@
       <c r="G58" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H58">
-        <f t="shared" si="0"/>
-        <v>91.153500000000008</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -3591,12 +3225,8 @@
       <c r="G59" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H59">
-        <f t="shared" si="0"/>
-        <v>90.551000000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -3618,12 +3248,8 @@
       <c r="G60" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H60">
-        <f t="shared" si="0"/>
-        <v>89.9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -3645,12 +3271,8 @@
       <c r="G61" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H61">
-        <f t="shared" si="0"/>
-        <v>89.200500000000005</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -3672,12 +3294,8 @@
       <c r="G62" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="H62">
-        <f t="shared" si="0"/>
-        <v>88.450999999999993</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -3699,12 +3317,8 @@
       <c r="G63" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="H63">
-        <f t="shared" si="0"/>
-        <v>87.646999999999991</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -3726,12 +3340,8 @@
       <c r="G64" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="H64">
-        <f t="shared" si="0"/>
-        <v>86.787000000000006</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -3753,12 +3363,8 @@
       <c r="G65" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="H65">
-        <f t="shared" si="0"/>
-        <v>85.873500000000007</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -3780,12 +3386,8 @@
       <c r="G66" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H66">
-        <f t="shared" si="0"/>
-        <v>84.91149999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -3807,12 +3409,8 @@
       <c r="G67" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H67">
-        <f t="shared" ref="H67:H121" si="1">(C67+F67)/2</f>
-        <v>83.902500000000003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -3834,12 +3432,8 @@
       <c r="G68" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H68">
-        <f t="shared" si="1"/>
-        <v>82.841000000000008</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -3861,12 +3455,8 @@
       <c r="G69" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="H69">
-        <f t="shared" si="1"/>
-        <v>81.718999999999994</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -3888,12 +3478,8 @@
       <c r="G70" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="H70">
-        <f t="shared" si="1"/>
-        <v>80.531499999999994</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -3915,12 +3501,8 @@
       <c r="G71" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="H71">
-        <f t="shared" si="1"/>
-        <v>79.274000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -3942,12 +3524,8 @@
       <c r="G72" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="H72">
-        <f t="shared" si="1"/>
-        <v>77.93950000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -3969,12 +3547,8 @@
       <c r="G73" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="H73">
-        <f t="shared" si="1"/>
-        <v>76.516000000000005</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -3996,12 +3570,8 @@
       <c r="G74" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="H74">
-        <f t="shared" si="1"/>
-        <v>74.99199999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -4023,12 +3593,8 @@
       <c r="G75" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="H75">
-        <f t="shared" si="1"/>
-        <v>73.359499999999997</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -4050,12 +3616,8 @@
       <c r="G76" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="H76">
-        <f t="shared" si="1"/>
-        <v>71.611500000000007</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -4077,12 +3639,8 @@
       <c r="G77" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="H77">
-        <f t="shared" si="1"/>
-        <v>69.739000000000004</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -4104,12 +3662,8 @@
       <c r="G78" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="H78">
-        <f t="shared" si="1"/>
-        <v>67.724999999999994</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -4131,12 +3685,8 @@
       <c r="G79" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="H79">
-        <f t="shared" si="1"/>
-        <v>65.557500000000005</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -4158,12 +3708,8 @@
       <c r="G80" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="H80">
-        <f t="shared" si="1"/>
-        <v>63.236999999999995</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -4185,12 +3731,8 @@
       <c r="G81" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="H81">
-        <f t="shared" si="1"/>
-        <v>60.767499999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -4212,12 +3754,8 @@
       <c r="G82" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="H82">
-        <f t="shared" si="1"/>
-        <v>58.149500000000003</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -4239,12 +3777,8 @@
       <c r="G83" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H83">
-        <f t="shared" si="1"/>
-        <v>55.372</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -4266,12 +3800,8 @@
       <c r="G84" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="H84">
-        <f t="shared" si="1"/>
-        <v>52.427</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -4293,12 +3823,8 @@
       <c r="G85" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H85">
-        <f t="shared" si="1"/>
-        <v>49.320999999999998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -4320,12 +3846,8 @@
       <c r="G86" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="H86">
-        <f t="shared" si="1"/>
-        <v>46.066000000000003</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -4347,12 +3869,8 @@
       <c r="G87" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="H87">
-        <f t="shared" si="1"/>
-        <v>42.677999999999997</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -4374,12 +3892,8 @@
       <c r="G88" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="H88">
-        <f t="shared" si="1"/>
-        <v>39.177</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -4401,12 +3915,8 @@
       <c r="G89" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="H89">
-        <f t="shared" si="1"/>
-        <v>35.591000000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -4428,12 +3938,8 @@
       <c r="G90" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="H90">
-        <f t="shared" si="1"/>
-        <v>31.953000000000003</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -4455,12 +3961,8 @@
       <c r="G91" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="H91">
-        <f t="shared" si="1"/>
-        <v>28.308999999999997</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -4482,12 +3984,8 @@
       <c r="G92" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="H92">
-        <f t="shared" si="1"/>
-        <v>24.710999999999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -4509,12 +4007,8 @@
       <c r="G93" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="H93">
-        <f t="shared" si="1"/>
-        <v>21.219000000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -4536,12 +4030,8 @@
       <c r="G94" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="H94">
-        <f t="shared" si="1"/>
-        <v>17.893999999999998</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -4563,12 +4053,8 @@
       <c r="G95" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="H95">
-        <f t="shared" si="1"/>
-        <v>14.794</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -4590,12 +4076,8 @@
       <c r="G96" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="H96">
-        <f t="shared" si="1"/>
-        <v>11.969999999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -4617,12 +4099,8 @@
       <c r="G97" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="H97">
-        <f t="shared" si="1"/>
-        <v>9.4615000000000009</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -4644,12 +4122,8 @@
       <c r="G98" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="H98">
-        <f t="shared" si="1"/>
-        <v>7.3025000000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -4671,12 +4145,8 @@
       <c r="G99" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="H99">
-        <f t="shared" si="1"/>
-        <v>5.5024999999999995</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -4698,12 +4168,8 @@
       <c r="G100" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H100">
-        <f t="shared" si="1"/>
-        <v>4.0485000000000007</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -4725,12 +4191,8 @@
       <c r="G101" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H101">
-        <f t="shared" si="1"/>
-        <v>2.9125000000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -4752,12 +4214,8 @@
       <c r="G102" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="H102">
-        <f t="shared" si="1"/>
-        <v>2.0505</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -4779,12 +4237,8 @@
       <c r="G103" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="H103">
-        <f t="shared" si="1"/>
-        <v>350.56049999999999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -4806,12 +4260,8 @@
       <c r="G104" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H104">
-        <f t="shared" si="1"/>
-        <v>222.72399999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -4833,12 +4283,8 @@
       <c r="G105" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="H105">
-        <f t="shared" si="1"/>
-        <v>617</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -4860,12 +4306,8 @@
       <c r="G106" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="H106">
-        <f t="shared" si="1"/>
-        <v>390.5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -4887,12 +4329,8 @@
       <c r="G107" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H107">
-        <f t="shared" si="1"/>
-        <v>239</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -4914,12 +4352,8 @@
       <c r="G108" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="H108">
-        <f t="shared" si="1"/>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -4941,12 +4375,8 @@
       <c r="G109" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="H109">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -4968,12 +4398,8 @@
       <c r="G110" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="H110">
-        <f t="shared" si="1"/>
-        <v>43.5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -4995,12 +4421,8 @@
       <c r="G111" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="H111">
-        <f t="shared" si="1"/>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -5022,12 +4444,8 @@
       <c r="G112" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="H112">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -5049,12 +4467,8 @@
       <c r="G113" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="H113">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -5076,12 +4490,8 @@
       <c r="G114" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="H114">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -5103,12 +4513,8 @@
       <c r="G115" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="H115">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -5130,12 +4536,8 @@
       <c r="G116" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="H116">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -5157,12 +4559,8 @@
       <c r="G117" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="H117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -5184,12 +4582,8 @@
       <c r="G118" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="H118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -5211,12 +4605,8 @@
       <c r="G119" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="H119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -5238,12 +4628,8 @@
       <c r="G120" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="H120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -5264,10 +4650,6 @@
       </c>
       <c r="G121" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="H121">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
